--- a/data/financial_statements/soci/ES.xlsx
+++ b/data/financial_statements/soci/ES.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>3215645000</v>
+        <v>3216000000</v>
       </c>
       <c r="C2">
-        <v>2572641000</v>
+        <v>2573000000</v>
       </c>
       <c r="D2">
-        <v>3471310000</v>
+        <v>3471000000</v>
       </c>
       <c r="E2">
-        <v>2481913000</v>
+        <v>2482000000</v>
       </c>
       <c r="F2">
-        <v>2432794000</v>
+        <v>2433000000</v>
       </c>
       <c r="G2">
         <v>2122538000</v>
@@ -733,8 +844,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E3">
         <v>0.111</v>
@@ -846,23 +957,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1388041000</v>
+        <v>2418000000</v>
       </c>
       <c r="C4">
-        <v>940541000</v>
+        <v>1894000000</v>
       </c>
       <c r="D4">
-        <v>1389696000</v>
+        <v>2588000000</v>
       </c>
       <c r="E4">
-        <v>843127100</v>
+        <v>1803000000</v>
       </c>
       <c r="F4">
-        <v>880639000</v>
+        <v>1736000000</v>
       </c>
       <c r="G4">
         <v>650087000</v>
@@ -968,23 +1079,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1827604000</v>
+        <v>797000000</v>
       </c>
       <c r="C5">
-        <v>1632100000</v>
+        <v>679000000</v>
       </c>
       <c r="D5">
-        <v>2081614000</v>
+        <v>883000000</v>
       </c>
       <c r="E5">
-        <v>1638786000</v>
+        <v>679000000</v>
       </c>
       <c r="F5">
-        <v>1552155000</v>
+        <v>697000000</v>
       </c>
       <c r="G5">
         <v>1472451000</v>
@@ -1090,8 +1201,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>694336000</v>
@@ -1212,8 +1323,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>557293000</v>
@@ -1334,8 +1445,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>178000000</v>
@@ -1375,23 +1486,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>178174000</v>
+        <v>14000000</v>
       </c>
       <c r="C9">
-        <v>160090000</v>
+        <v>10000000</v>
       </c>
       <c r="D9">
-        <v>153245000</v>
+        <v>7000000</v>
       </c>
       <c r="E9">
-        <v>151171000</v>
+        <v>8000000</v>
       </c>
       <c r="F9">
-        <v>147962000</v>
+        <v>7000000</v>
       </c>
       <c r="G9">
         <v>145435000</v>
@@ -1497,23 +1608,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-88343000</v>
+        <v>75000000</v>
       </c>
       <c r="C10">
-        <v>-66229000</v>
+        <v>77000000</v>
       </c>
       <c r="D10">
-        <v>-81684000</v>
+        <v>73000000</v>
       </c>
       <c r="E10">
-        <v>-114477000</v>
+        <v>23000000</v>
       </c>
       <c r="F10">
-        <v>-104194000</v>
+        <v>240000000</v>
       </c>
       <c r="G10">
         <v>-98816000</v>
@@ -1619,23 +1730,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>468950000</v>
+        <v>469000000</v>
       </c>
       <c r="C11">
-        <v>389340000</v>
+        <v>389000000</v>
       </c>
       <c r="D11">
-        <v>581371000</v>
+        <v>581000000</v>
       </c>
       <c r="E11">
-        <v>358340100</v>
+        <v>358000000</v>
       </c>
       <c r="F11">
-        <v>379137000</v>
+        <v>379000000</v>
       </c>
       <c r="G11">
         <v>352789000</v>
@@ -1741,23 +1852,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>117661000</v>
+        <v>118000000</v>
       </c>
       <c r="C12">
-        <v>95598000</v>
+        <v>96000000</v>
       </c>
       <c r="D12">
-        <v>136045000</v>
+        <v>136000000</v>
       </c>
       <c r="E12">
-        <v>49763000</v>
+        <v>50000000</v>
       </c>
       <c r="F12">
-        <v>94091000</v>
+        <v>94000000</v>
       </c>
       <c r="G12">
         <v>86389000</v>
@@ -1863,8 +1974,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>351289000</v>
@@ -1985,8 +2096,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1999,8 +2110,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1880000</v>
@@ -2121,23 +2232,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>349409000</v>
+        <v>349000000</v>
       </c>
       <c r="C16">
-        <v>291862000</v>
+        <v>292000000</v>
       </c>
       <c r="D16">
-        <v>443446000</v>
+        <v>443000000</v>
       </c>
       <c r="E16">
-        <v>306697900</v>
+        <v>307000000</v>
       </c>
       <c r="F16">
-        <v>283166000</v>
+        <v>283000000</v>
       </c>
       <c r="G16">
         <v>264520000</v>
@@ -2243,11 +2354,11 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0.84</v>
@@ -2365,8 +2476,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2487,23 +2598,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>347297000</v>
+        <v>347000000</v>
       </c>
       <c r="C19">
-        <v>345894000</v>
+        <v>346000000</v>
       </c>
       <c r="D19">
-        <v>345156000</v>
+        <v>345000000</v>
       </c>
       <c r="E19">
-        <v>343973000</v>
+        <v>344000000</v>
       </c>
       <c r="F19">
-        <v>344024000</v>
+        <v>344000000</v>
       </c>
       <c r="G19">
         <v>343845000</v>
@@ -2609,23 +2720,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>347763000</v>
+        <v>348000000</v>
       </c>
       <c r="C20">
-        <v>346295000</v>
+        <v>346000000</v>
       </c>
       <c r="D20">
-        <v>345661000</v>
+        <v>346000000</v>
       </c>
       <c r="E20">
-        <v>344631000</v>
+        <v>345000000</v>
       </c>
       <c r="F20">
-        <v>344670000</v>
+        <v>345000000</v>
       </c>
       <c r="G20">
         <v>344436000</v>
@@ -2731,8 +2842,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E21">
         <v>0.2736</v>
@@ -2844,8 +2955,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E22">
         <v>0.1905</v>
@@ -2957,8 +3068,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E23">
         <v>0.1442</v>
@@ -3070,8 +3181,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E24">
         <v>0.1237</v>
@@ -3183,23 +3294,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>970723000</v>
+        <v>971000000</v>
       </c>
       <c r="C25">
-        <v>820216100</v>
+        <v>820000000</v>
       </c>
       <c r="D25">
-        <v>1189333000</v>
+        <v>1189000000</v>
       </c>
       <c r="E25">
-        <v>826732700</v>
+        <v>827000000</v>
       </c>
       <c r="F25">
-        <v>805411900</v>
+        <v>805000000</v>
       </c>
       <c r="G25">
         <v>731864300</v>
@@ -3305,8 +3416,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>557293000</v>
@@ -3427,8 +3538,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>351289000</v>
@@ -3549,23 +3660,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>351289000</v>
+        <v>351000000</v>
       </c>
       <c r="C28">
-        <v>293742000</v>
+        <v>294000000</v>
       </c>
       <c r="D28">
-        <v>445326000</v>
+        <v>445000000</v>
       </c>
       <c r="E28">
-        <v>308577000</v>
+        <v>309000000</v>
       </c>
       <c r="F28">
-        <v>285046000</v>
+        <v>285000000</v>
       </c>
       <c r="G28">
         <v>266400000</v>
@@ -3671,8 +3782,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>1.0115</v>
@@ -3793,8 +3904,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1.0101</v>
@@ -3915,8 +4026,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.0115</v>
@@ -4037,8 +4148,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.0101</v>
@@ -4159,8 +4270,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>347763000</v>
@@ -4281,8 +4392,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E34">
         <v>0.3332</v>
@@ -4394,8 +4505,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E35">
         <v>0.1782</v>
